--- a/结果/resob11191035.xlsx
+++ b/结果/resob11191035.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9A861BE1-F2FF-494A-BF73-96B4B5D7F100}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D10CEF58-59BA-4FC5-AF34-AF41BE56B740}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -192,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -201,6 +202,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -509,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,13 +600,13 @@
       <c r="C2">
         <v>1059.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.86326145870154358</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.6519755827026994</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.85395076144601756</v>
       </c>
       <c r="G2" s="3">
@@ -623,10 +627,10 @@
       <c r="L2" s="2">
         <v>0.7012385879731875</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>0.86813186813186816</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>0.76699029126213591</v>
       </c>
       <c r="O2">
@@ -676,13 +680,13 @@
       <c r="C3">
         <v>2303.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0.85233824471492636</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.71939433711846057</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.82363147393625846</v>
       </c>
       <c r="G3" s="3">
@@ -703,10 +707,10 @@
       <c r="L3" s="2">
         <v>0.55658393654917804</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>0.86</v>
       </c>
       <c r="O3">
@@ -756,13 +760,13 @@
       <c r="C4">
         <v>933</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.8788955713504647</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.77360967479959797</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.74697297170506793</v>
       </c>
       <c r="G4" s="3">
@@ -783,10 +787,10 @@
       <c r="L4" s="2">
         <v>0.50948502472338486</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>0.76923076923076916</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>0.86614173228346458</v>
       </c>
       <c r="O4">
@@ -836,13 +840,13 @@
       <c r="C5">
         <v>683</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.85354884673612963</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.48292538691836789</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.66221123896638656</v>
       </c>
       <c r="G5" s="3">
@@ -863,10 +867,10 @@
       <c r="L5" s="2">
         <v>0.55135326658437345</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>0.65517241379310343</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>0.57575757575757569</v>
       </c>
       <c r="O5">
@@ -913,13 +917,13 @@
       <c r="C6">
         <v>113</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.94281246509549876</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -940,8 +944,8 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6">
@@ -991,13 +995,13 @@
       <c r="C7">
         <v>629</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.8225870410024585</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.52905628029831631</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.40949303061369979</v>
       </c>
       <c r="G7" s="3">
@@ -1018,10 +1022,10 @@
       <c r="L7" s="2">
         <v>0.20383441706593661</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>0.37391304347826082</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>0.60563380281690149</v>
       </c>
       <c r="O7">
@@ -1071,13 +1075,13 @@
       <c r="C8">
         <v>1600</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.75844895055140515</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.71390263860673553</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.63957115258913499</v>
       </c>
       <c r="G8" s="3">
@@ -1098,10 +1102,10 @@
       <c r="L8" s="2">
         <v>0.42834955177403478</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>0.56420233463035019</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>0.74742268041237114</v>
       </c>
       <c r="O8">
@@ -1148,13 +1152,13 @@
       <c r="C9">
         <v>677.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.86533299245813633</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0.80876843877319149</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.66300343362868808</v>
       </c>
       <c r="G9" s="3">
@@ -1175,10 +1179,10 @@
       <c r="L9" s="2">
         <v>0.54169828290242217</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>0.734375</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>0.79661016949152541</v>
       </c>
       <c r="O9">
@@ -1225,13 +1229,13 @@
       <c r="C10">
         <v>613.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.82287276965838796</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.65051032967865319</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.44283077064353987</v>
       </c>
       <c r="G10" s="3">
@@ -1252,10 +1256,10 @@
       <c r="L10" s="2">
         <v>0.16512511357360229</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>0.41739130434782612</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>0.7384615384615385</v>
       </c>
       <c r="O10">
@@ -1302,13 +1306,13 @@
       <c r="C11">
         <v>2013</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>0.82723473652023238</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.79946833728928024</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>0.83991103283640922</v>
       </c>
       <c r="G11" s="3">
@@ -1329,10 +1333,10 @@
       <c r="L11" s="2">
         <v>0.66248107823239855</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>0.69897959183673475</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>0.88961038961038963</v>
       </c>
       <c r="O11">
@@ -1379,13 +1383,13 @@
       <c r="C12">
         <v>317.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>0.79003230272265801</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.6713891310665504</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.30375915096866352</v>
       </c>
       <c r="G12" s="3">
@@ -1406,10 +1410,10 @@
       <c r="L12" s="2">
         <v>0.17246766746864201</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>0.21904761904761899</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>0.6216216216216216</v>
       </c>
       <c r="O12">
@@ -1456,13 +1460,13 @@
       <c r="C13">
         <v>509.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>0.7847072093241847</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>0.85439157126757226</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.41066770072691128</v>
       </c>
       <c r="G13" s="3">
@@ -1483,10 +1487,10 @@
       <c r="L13" s="2">
         <v>0.28548189993202783</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>0.45217391304347831</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>0.8666666666666667</v>
       </c>
       <c r="O13">
@@ -1533,13 +1537,13 @@
       <c r="C14">
         <v>813.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0.89244526157446091</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.80778403329593873</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>0.72491546663268336</v>
       </c>
       <c r="G14" s="3">
@@ -1560,10 +1564,10 @@
       <c r="L14" s="2">
         <v>0.40832546182019092</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="4">
         <v>0.64179104477611948</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="4">
         <v>0.87755102040816324</v>
       </c>
       <c r="O14">
@@ -1610,13 +1614,13 @@
       <c r="C15">
         <v>278</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0.86744782131087517</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>0.56826385563490245</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0.4262153594743282</v>
       </c>
       <c r="G15" s="3">
@@ -1637,10 +1641,10 @@
       <c r="L15" s="2">
         <v>0.2061287421026356</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>0.35849056603773588</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="4">
         <v>0.61290322580645162</v>
       </c>
       <c r="O15">
@@ -1687,13 +1691,13 @@
       <c r="C16">
         <v>608</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>0.76532271175418631</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.65491147535530436</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.40328620410347971</v>
       </c>
       <c r="G16" s="3">
@@ -1714,10 +1718,10 @@
       <c r="L16" s="2">
         <v>0.1718866909294276</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>0.339622641509434</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="4">
         <v>0.71052631578947367</v>
       </c>
       <c r="O16">
@@ -1764,13 +1768,13 @@
       <c r="C17">
         <v>213.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>0.83978697437035388</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.54742531373782999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.302944054557368</v>
       </c>
       <c r="G17" s="3">
@@ -1791,10 +1795,10 @@
       <c r="L17" s="2">
         <v>8.7475850988590204E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="4">
         <v>0.22222222222222221</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="4">
         <v>0.46153846153846162</v>
       </c>
       <c r="O17">
@@ -1841,13 +1845,13 @@
       <c r="C18">
         <v>1242.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.81896947440899703</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0.81983485511652021</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0.73495904923431121</v>
       </c>
       <c r="G18" s="3">
@@ -1868,10 +1872,10 @@
       <c r="L18" s="2">
         <v>0.45536364983611127</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>0.61611374407582931</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="4">
         <v>0.87248322147651003</v>
       </c>
       <c r="O18">
@@ -1918,13 +1922,13 @@
       <c r="C19">
         <v>1119.5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.77520161290322576</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0.77125899286205024</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.59852587463579554</v>
       </c>
       <c r="G19" s="3">
@@ -1945,10 +1949,10 @@
       <c r="L19" s="2">
         <v>0.39539613940326679</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>0.54444444444444451</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4">
         <v>0.80991735537190079</v>
       </c>
       <c r="O19">
@@ -1995,13 +1999,13 @@
       <c r="C20">
         <v>1076.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0.88483642793987616</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>0.91866366799647747</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>0.94484796025891926</v>
       </c>
       <c r="G20" s="3">
@@ -2022,10 +2026,10 @@
       <c r="L20" s="2">
         <v>0.69641169999352881</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>0.85714285714285721</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="4">
         <v>0.87378640776699035</v>
       </c>
       <c r="O20">
@@ -2072,13 +2076,13 @@
       <c r="C21">
         <v>717</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.77574402044915103</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.68593895055899834</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>0.45049326341185031</v>
       </c>
       <c r="G21" s="3">
@@ -2099,10 +2103,10 @@
       <c r="L21" s="2">
         <v>0.29648564207887762</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="4">
         <v>0.42647058823529421</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="4">
         <v>0.81690140845070425</v>
       </c>
       <c r="O21">
@@ -2149,13 +2153,13 @@
       <c r="C22">
         <v>2647</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>0.81343620285147078</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>0.73413788478583397</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0.83663873457220927</v>
       </c>
       <c r="G22" s="3">
@@ -2176,10 +2180,10 @@
       <c r="L22" s="2">
         <v>0.59128788329946036</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="4">
         <v>0.8125</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="4">
         <v>0.81851851851851853</v>
       </c>
       <c r="O22">
@@ -2226,13 +2230,13 @@
       <c r="C23">
         <v>1551</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0.78906677613574172</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.6590429363179573</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.78185450259480682</v>
       </c>
       <c r="G23" s="3">
@@ -2253,10 +2257,10 @@
       <c r="L23" s="2">
         <v>0.58014096492526268</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="4">
         <v>0.71333333333333337</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="4">
         <v>0.75352112676056338</v>
       </c>
       <c r="O23">
@@ -2303,13 +2307,13 @@
       <c r="C24">
         <v>987.2045454545455</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>0.83110590329701639</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0.67375698519005633</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>0.59094014488802415</v>
       </c>
       <c r="G24" s="3">
@@ -2330,10 +2334,10 @@
       <c r="L24" s="2">
         <v>0.39395461600711551</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="4">
         <v>0.60989565802760015</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="4">
         <v>0.79161205766710352</v>
       </c>
       <c r="O24">
@@ -2458,4 +2462,461 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B465C-E6E8-4F2E-9179-408040880DB7}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6">
+        <v>100</v>
+      </c>
+      <c r="E1" s="6">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>200</v>
+      </c>
+      <c r="B6" s="6">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>200</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>200</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>200</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>200</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>200</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6">
+        <v>100</v>
+      </c>
+      <c r="C17" s="6">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>100</v>
+      </c>
+      <c r="F17" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6">
+        <v>100</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>200</v>
+      </c>
+      <c r="B21" s="6">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6">
+        <v>200</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>200</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
+        <v>200</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>